--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1A4F6-73CA-4D2A-9B5D-89A2559B967C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6EE31-72F8-4C51-8EA4-9D69CD5F3654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>10/29 1006测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/30 1006测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,9 +319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +604,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -658,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="6">
@@ -737,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>5.0000000000000002E-5</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -815,21 +816,33 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19">
-        <v>0</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -849,7 +862,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6EE31-72F8-4C51-8EA4-9D69CD5F3654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC48854-8139-4BB5-84AA-BDB78E23C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,11 +119,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/29 1006测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10/30 1006测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/4 1006测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/4 邱高测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/29 1006测试 数据波动过大且可用采样点过少无法拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +612,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -690,13 +698,25 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -835,21 +855,33 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -992,13 +1024,21 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC48854-8139-4BB5-84AA-BDB78E23C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195EB3AC-17DD-41FC-AE1C-61E2398A0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/13 飞书/Task代码及测试结果/FFT/FFT测试结果与代码存放路径.pptx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10/21 飞书/Task代码及测试结果/加解密算法/task测试结果.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,18 @@
   </si>
   <si>
     <t>10/29 1006测试 数据波动过大且可用采样点过少无法拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/5 1006测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +335,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +635,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -630,47 +653,47 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="21">
         <v>500</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6">
+      <c r="E3" s="22"/>
+      <c r="F3" s="23">
         <v>1</v>
       </c>
       <c r="G3" s="8">
@@ -684,90 +707,102 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
         <v>0</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="B7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21">
         <v>0.05</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -793,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -806,97 +841,97 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="21">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="21">
         <v>0</v>
       </c>
       <c r="G11" s="10">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
+      <c r="B12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7">
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21">
         <v>25</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
       <c r="G13" s="10">
@@ -910,52 +945,52 @@
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -981,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1037,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1055,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1107,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1133,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1159,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1176,5 +1211,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195EB3AC-17DD-41FC-AE1C-61E2398A0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E74097-7725-462E-AEAF-4B78884032EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10/29 1006测试 数据波动过大且可用采样点过少无法拟合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11/5 1006测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,7 +135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>波动</t>
+    <t>11/12 1006测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,18 +331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +616,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,56 +625,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="7">
         <v>500</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23">
+      <c r="E3" s="9"/>
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="8">
@@ -707,43 +688,43 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>27</v>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" s="10">
@@ -757,19 +738,19 @@
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="10">
@@ -783,19 +764,19 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.05</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="10">
@@ -818,13 +799,13 @@
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -832,58 +813,58 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21">
-        <v>0</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="10">
@@ -897,41 +878,39 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>25</v>
+      <c r="B12" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>300</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7">
         <v>25</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="10">
@@ -945,19 +924,19 @@
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="10">
@@ -971,19 +950,19 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="10">
@@ -1006,13 +985,13 @@
       <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1020,16 +999,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1053,7 +1032,7 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1089,7 +1068,7 @@
       <c r="G20" s="10">
         <v>0</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1184,13 +1163,13 @@
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E74097-7725-462E-AEAF-4B78884032EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0CC35F-6BBE-48AC-88E4-7E4CC22A61B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>11/12 1006测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -908,7 +912,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -1178,6 +1182,11 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuqi Jin\Desktop\Time-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0CC35F-6BBE-48AC-88E4-7E4CC22A61B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF89B6F4-7268-41F8-B268-15131B3011E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="77">
   <si>
     <t>KF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,8 +140,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>6.71%~11.14%</t>
+  </si>
+  <si>
+    <t>7.46%~17.29%</t>
+  </si>
+  <si>
+    <t>3.45%~14.05%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12%~15.41%</t>
+  </si>
+  <si>
+    <t>6.02%~34.89%</t>
+  </si>
+  <si>
+    <t>1.91%~5.61%</t>
+  </si>
+  <si>
+    <t>3.67%~8.90%</t>
+  </si>
+  <si>
+    <t>1.76%~4.30%</t>
+  </si>
+  <si>
+    <t>5.57%~8.12%</t>
+  </si>
+  <si>
+    <t>1.57%~5.88%</t>
+  </si>
+  <si>
+    <t>2.69%~4.93%</t>
+  </si>
+  <si>
+    <t>6.18%~27.77%</t>
+  </si>
+  <si>
+    <t>0.09%~1.01%</t>
+  </si>
+  <si>
+    <t>0.09%~0.84%</t>
+  </si>
+  <si>
+    <t>6.14%~10.02%</t>
+  </si>
+  <si>
+    <t>12.89%~22.89%</t>
+  </si>
+  <si>
+    <t>3.90%~7.75%</t>
+  </si>
+  <si>
+    <t>8.65%~11.03%</t>
+  </si>
+  <si>
+    <t>6.97%~10.30%</t>
+  </si>
+  <si>
+    <t>1.27%~18.76%</t>
+  </si>
+  <si>
+    <t>0.42%~2.88%</t>
+  </si>
+  <si>
+    <t>0.07%~0.57%</t>
+  </si>
+  <si>
+    <t>0.03%~0.29%</t>
+  </si>
+  <si>
+    <t>0.39%~0.93%</t>
+  </si>
+  <si>
+    <t>0.22%~0.30%</t>
+  </si>
+  <si>
+    <t>0.00%~0.00%</t>
+  </si>
+  <si>
+    <t>4.23%~8.06%</t>
+  </si>
+  <si>
+    <t>0.79%~2.63%</t>
+  </si>
+  <si>
+    <t>3.25%~3.68%</t>
+  </si>
+  <si>
+    <t>3.26%~3.73%</t>
+  </si>
+  <si>
+    <t>0.17%~0.32%</t>
+  </si>
+  <si>
+    <t>0.12%~0.27%</t>
+  </si>
+  <si>
+    <t>4.13%~13.14%</t>
+  </si>
+  <si>
+    <t>0.47%~1.28%</t>
+  </si>
+  <si>
+    <t>0.21%~0.30%</t>
+  </si>
+  <si>
+    <t>0.07%~0.11%</t>
+  </si>
+  <si>
+    <t>0.02%~0.06%</t>
+  </si>
+  <si>
+    <t>0.01%~0.04%</t>
+  </si>
+  <si>
+    <t>0.14%~1.39%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11%~0.22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83%~4.39%</t>
+  </si>
+  <si>
+    <t>0.07%~6.63%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20%~8.71%</t>
+  </si>
+  <si>
+    <t>2.52%~17.93%</t>
+  </si>
+  <si>
+    <t>4.35%~10.94%</t>
+  </si>
+  <si>
+    <t>2.26%~3.77%</t>
+  </si>
+  <si>
+    <t>2.68%~7.76%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.34%~19.94%</t>
+  </si>
+  <si>
+    <t>0.89%~7.04%</t>
   </si>
 </sst>
 </file>
@@ -617,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -669,20 +818,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="7">
         <v>500</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -1182,11 +1331,6 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1201,4 +1345,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296BA29A-22DD-4D12-B916-F9E77D3EA5FA}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="7" width="13.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>